--- a/Week2 Assignment.xlsx
+++ b/Week2 Assignment.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Data Technician\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Data Technician\Week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63325B7-3A03-4BEB-8F74-375D47494733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16CFD0-F807-4AB2-B208-80F3981AB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6FF49400-440F-4AE6-9F21-523AE4CAB82E}"/>
+    <workbookView xWindow="2325" yWindow="855" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{6FF49400-440F-4AE6-9F21-523AE4CAB82E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,7 +316,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -796,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1313EA7-A20B-4050-BED0-8717D74D8FA2}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +843,7 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="4">
         <v>35</v>
       </c>
     </row>
@@ -959,11 +958,11 @@
         <v>820.00000000000045</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="L11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <v>820</v>
       </c>
     </row>
@@ -977,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9BDA2C-1488-4D64-A90C-D6D38578CB16}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
